--- a/TestingWorkbook.xlsx
+++ b/TestingWorkbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoffrey.mcmahon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22516A93-929B-443A-98D0-BF4DD4D1AE3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF21F73-CF10-40DE-9F1E-C52D719FB75A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D778F196-0EB8-46D3-A75B-659F435837D4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Testing123</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Geoff</t>
+  </si>
+  <si>
+    <t>Made a Change</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F1B13E-5C62-4B6E-B981-E67E1F59A5B6}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +466,19 @@
       </c>
       <c r="C2" s="1">
         <f ca="1">NOW()</f>
-        <v>44332.740234259261</v>
+        <v>44332.754649189817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <f ca="1">NOW()+1</f>
+        <v>44333.754649189817</v>
       </c>
     </row>
   </sheetData>
